--- a/medicine/Mort/Cimetière_d'Issy-les-Moulineaux/Cimetière_d'Issy-les-Moulineaux.xlsx
+++ b/medicine/Mort/Cimetière_d'Issy-les-Moulineaux/Cimetière_d'Issy-les-Moulineaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Issy-les-Moulineaux</t>
+          <t>Cimetière_d'Issy-les-Moulineaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Issy-les-Moulineaux est un cimetière communal se trouvant dans la ville d'Issy-les-Moulineaux, dans les Hauts-de-Seine[1],[2].
-La commune est adhérente au Syndicat intercommunal funéraire de la région parisienne[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Issy-les-Moulineaux est un cimetière communal se trouvant dans la ville d'Issy-les-Moulineaux, dans les Hauts-de-Seine,.
+La commune est adhérente au Syndicat intercommunal funéraire de la région parisienne.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Issy-les-Moulineaux</t>
+          <t>Cimetière_d'Issy-les-Moulineaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est accessible par la gare d'Issy-Val de Seine. Son entrée principale se trouve rue de l'Égalité.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Issy-les-Moulineaux</t>
+          <t>Cimetière_d'Issy-les-Moulineaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été ouvert en 1864, agrandi en 1873, 1908 et 1936. Il ferma entre 1961 et 1972, où il était remplacé par le cimetière intercommunal de Clamart qui avait ouvert en 1957.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Issy-les-Moulineaux</t>
+          <t>Cimetière_d'Issy-les-Moulineaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La composition de ce cimetière est celle d'un rectangle parcouru par des allées orthogonales, ornées d'ifs.
 Il est orné d'une statue appelée La Veuve, œuvre du sculpteur Pierre Albert-Birot.
-Il s'y trouve un carré militaire[4].
+Il s'y trouve un carré militaire.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Issy-les-Moulineaux</t>
+          <t>Cimetière_d'Issy-les-Moulineaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +625,14 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le journaliste sportif Jean-Paul Brouchon (1938-2011).
 Le peintre Georges-Marcel Burgun (1874-1964).
 Le cycliste Bruno Carini (1912-1945).
-Paul Cruet (1880-1966), fondeur d'Auguste Rodin[5].
+Paul Cruet (1880-1966), fondeur d'Auguste Rodin.
 L'homme politique Auguste Gervais (1857-1917).
 Le pilote d'essai et militaire Roland Glavany (1922-2017)
 Louis Guilloteaux (1789-1858), ancien maire de la ville.
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Issy-les-Moulineaux</t>
+          <t>Cimetière_d'Issy-les-Moulineaux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tombe Obry-Jassédé (1895), selon les plans d'Hector Guimard.
